--- a/docs/base/StructureDefinition-lt-practitioner.xlsx
+++ b/docs/base/StructureDefinition-lt-practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T15:58:38+02:00</t>
+    <t>2025-10-30T19:04:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Practitioner|5.0.0</t>
+    <t>http://hl7.eu/fhir/base-r5/StructureDefinition/practitioner-eu-core|0.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}name-or-identifier:identifier or name SHALL be present {identifier.exists() or name.exists()}</t>
   </si>
   <si>
     <t>administrative.individual</t>
@@ -495,7 +495,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier for the person as this agent</t>
+    <t>Practitioner identifier</t>
   </si>
   <si>
     <t>An identifier that applies to this person in this role.</t>
@@ -517,6 +517,223 @@
   </si>
   <si>
     <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|5.0.0</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ident-1
+</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|5.0.0)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -557,7 +774,7 @@
 </t>
   </si>
   <si>
-    <t>The name(s) associated with the practitioner</t>
+    <t>Practitioner Name</t>
   </si>
   <si>
     <t>The name(s) associated with the practitioner.</t>
@@ -589,6 +806,185 @@
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
+    <t>Practitioner.name.id</t>
+  </si>
+  <si>
+    <t>Practitioner.name.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|5.0.0</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./NamePurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>./FamilyName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>./GivenNames</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>./TitleCode</t>
+  </si>
+  <si>
+    <t>Practitioner.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>Practitioner.name.period</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
     <t>Practitioner.telecom</t>
   </si>
   <si>
@@ -596,7 +992,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the practitioner (that apply to all roles)</t>
+    <t>Contact details for the practitioner</t>
   </si>
   <si>
     <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
@@ -618,6 +1014,130 @@
   </si>
   <si>
     <t>./ContactPoints</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|5.0.0</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|5.0.0</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.
+Ranks need not be unique.  E.g. it's possible to have multiple contacts with rank=1.  If the ranks have different systems or uses, this would be interpreted to mean "X is my most preferred phone number, Y is my most preferred email address" or "X is my preferred home email and Y is my preferred work email".  If the system and use for equally-ranked contacts are the same, then the level of preference is equivalent for both repetitions. 
+Ranks need not be sequential and not all repetitions must have a rank.  For example, it's possible to have 4 contacts with ranks of 2, 5 and two with no rank specified.  That would be interpreted to mean the first is preferred over the second and no preference stated for the remaining contacts.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
   </si>
   <si>
     <t>Practitioner.gender</t>
@@ -700,7 +1220,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {http://hl7.eu/fhir/base-r5/StructureDefinition/Address-eu|0.1.0}
 </t>
   </si>
   <si>
@@ -784,33 +1304,7 @@
     <t>Practitioner.qualification.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Practitioner.qualification.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -848,10 +1342,6 @@
     <t>Practitioner.qualification.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Coded representation of the qualification</t>
   </si>
   <si>
@@ -873,10 +1363,6 @@
     <t>Practitioner.qualification.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Period during which the qualification is valid</t>
   </si>
   <si>
@@ -895,7 +1381,7 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|5.0.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-organization|0.2.0)
 </t>
   </si>
   <si>
@@ -1294,7 +1780,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1313,7 +1799,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="24.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1322,16 +1808,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.2578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="45.25390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="29.6796875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1339,7 +1825,7 @@
     <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="28.5078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="27.53125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="46.8359375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="117.94140625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="24.7421875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="43.34765625" customWidth="true" bestFit="true"/>
@@ -2534,7 +3020,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>81</v>
@@ -2660,76 +3146,70 @@
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -2738,22 +3218,22 @@
         <v>92</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>79</v>
@@ -2761,14 +3241,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2784,23 +3264,21 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
       </c>
@@ -2836,19 +3314,19 @@
         <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -2860,30 +3338,30 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2894,31 +3372,31 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -2943,13 +3421,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -2967,13 +3445,13 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
@@ -2985,24 +3463,24 @@
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3025,17 +3503,19 @@
         <v>93</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -3060,13 +3540,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3102,24 +3582,24 @@
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3133,7 +3613,7 @@
         <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>79</v>
@@ -3142,17 +3622,19 @@
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3165,7 +3647,7 @@
         <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>79</v>
@@ -3201,7 +3683,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3219,24 +3701,24 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3250,7 +3732,7 @@
         <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
@@ -3259,16 +3741,16 @@
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3282,7 +3764,7 @@
         <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>79</v>
@@ -3318,7 +3800,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3327,7 +3809,7 @@
         <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>104</v>
@@ -3336,24 +3818,24 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3364,7 +3846,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3376,20 +3858,16 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3437,13 +3915,13 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
@@ -3455,24 +3933,24 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3483,7 +3961,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3492,21 +3970,21 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3554,13 +4032,13 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
@@ -3572,24 +4050,24 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3600,34 +4078,38 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="P20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q20" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
         <v>79</v>
       </c>
@@ -3671,13 +4153,13 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
@@ -3686,27 +4168,27 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AN20" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO20" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>241</v>
       </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="B21" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3714,31 +4196,35 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -3786,53 +4272,53 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>248</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -3844,17 +4330,15 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -3903,19 +4387,19 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -3924,7 +4408,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -3942,7 +4426,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3955,26 +4439,24 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O23" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4010,19 +4492,19 @@
         <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4043,7 +4525,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4054,10 +4536,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4068,29 +4550,31 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4115,13 +4599,13 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4139,13 +4623,13 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
@@ -4157,24 +4641,24 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4182,7 +4666,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>92</v>
@@ -4194,19 +4678,23 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4230,13 +4718,13 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4254,10 +4742,10 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>92</v>
@@ -4272,28 +4760,28 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4303,27 +4791,27 @@
         <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4371,7 +4859,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4389,55 +4877,57 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4486,13 +4976,13 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
@@ -4504,24 +4994,24 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4541,20 +5031,18 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -4603,7 +5091,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -4621,24 +5109,24 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4649,7 +5137,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -4658,16 +5146,16 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4718,28 +5206,28 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -4750,21 +5238,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -4773,21 +5261,21 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>141</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
@@ -4835,46 +5323,46 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4884,28 +5372,28 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>140</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>149</v>
+        <v>315</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -4954,7 +5442,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -4966,30 +5454,30 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>137</v>
+        <v>317</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4997,7 +5485,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>92</v>
@@ -5012,20 +5500,16 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>263</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>162</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5049,13 +5533,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5073,28 +5557,28 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>296</v>
+        <v>166</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5105,21 +5589,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5131,20 +5615,18 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5180,50 +5662,2860 @@
         <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>172</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="H34" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO33" t="s" s="2">
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO33">
+  <autoFilter ref="A1:AO57">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5233,7 +8525,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI32">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
